--- a/UpScalingResults/Sensitivit_Specificity_AUC_Table.xlsx
+++ b/UpScalingResults/Sensitivit_Specificity_AUC_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\College\University of Vermont\Research\Wavelet Neural Network\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB23A14-F192-4735-BAA4-BB93F2379099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20911E-DFC4-4593-ABE6-79B82F108F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26505" yWindow="1215" windowWidth="19080" windowHeight="21570" xr2:uid="{FDAC1D10-3DA3-490A-8F15-02A945041D63}"/>
+    <workbookView xWindow="-8970" yWindow="1395" windowWidth="18000" windowHeight="9810" xr2:uid="{FDAC1D10-3DA3-490A-8F15-02A945041D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F6964-128B-47CE-88D7-F1F2BF932E56}">
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C40" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
